--- a/Code/Results/Cases/Case_4_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.036323420370156</v>
+        <v>1.070012994947984</v>
       </c>
       <c r="D2">
-        <v>1.048857036884391</v>
+        <v>1.070204931461848</v>
       </c>
       <c r="E2">
-        <v>1.044273704355618</v>
+        <v>1.07372751879298</v>
       </c>
       <c r="F2">
-        <v>1.054072190370665</v>
+        <v>1.079916712169917</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059033403744003</v>
+        <v>1.055512826316385</v>
       </c>
       <c r="J2">
-        <v>1.057469444745061</v>
+        <v>1.074944804679304</v>
       </c>
       <c r="K2">
-        <v>1.059675226820992</v>
+        <v>1.072905391148903</v>
       </c>
       <c r="L2">
-        <v>1.055148861020456</v>
+        <v>1.076418612711777</v>
       </c>
       <c r="M2">
-        <v>1.064826309796906</v>
+        <v>1.082591510264475</v>
       </c>
       <c r="N2">
-        <v>1.05897117265004</v>
+        <v>1.076471349599841</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042987255507145</v>
+        <v>1.071358866210923</v>
       </c>
       <c r="D3">
-        <v>1.054023558688988</v>
+        <v>1.071261060445785</v>
       </c>
       <c r="E3">
-        <v>1.050461455560875</v>
+        <v>1.075025283657365</v>
       </c>
       <c r="F3">
-        <v>1.059818365401951</v>
+        <v>1.081116722468656</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061588978694267</v>
+        <v>1.055956795270299</v>
       </c>
       <c r="J3">
-        <v>1.06237090054062</v>
+        <v>1.075946184319272</v>
       </c>
       <c r="K3">
-        <v>1.064008889692159</v>
+        <v>1.073777243667104</v>
       </c>
       <c r="L3">
-        <v>1.060486953702432</v>
+        <v>1.077532185862855</v>
       </c>
       <c r="M3">
-        <v>1.069739062277666</v>
+        <v>1.083608752920098</v>
       </c>
       <c r="N3">
-        <v>1.063879589075033</v>
+        <v>1.077474151313758</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047185290520381</v>
+        <v>1.072229102381869</v>
       </c>
       <c r="D4">
-        <v>1.057281130827256</v>
+        <v>1.071943822924284</v>
       </c>
       <c r="E4">
-        <v>1.054364595609814</v>
+        <v>1.075864715919043</v>
       </c>
       <c r="F4">
-        <v>1.063443917661464</v>
+        <v>1.08189287460222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063188747149007</v>
+        <v>1.056242509706581</v>
       </c>
       <c r="J4">
-        <v>1.065454437934962</v>
+        <v>1.076593001839951</v>
       </c>
       <c r="K4">
-        <v>1.066734089720363</v>
+        <v>1.074340163395683</v>
       </c>
       <c r="L4">
-        <v>1.063848344314489</v>
+        <v>1.078251878088413</v>
       </c>
       <c r="M4">
-        <v>1.072832494298294</v>
+        <v>1.084266064734413</v>
       </c>
       <c r="N4">
-        <v>1.066967505446162</v>
+        <v>1.078121887389507</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.048924218260656</v>
+        <v>1.072594802052421</v>
       </c>
       <c r="D5">
-        <v>1.058631088695717</v>
+        <v>1.072230709196117</v>
       </c>
       <c r="E5">
-        <v>1.055982524566977</v>
+        <v>1.076217542528426</v>
       </c>
       <c r="F5">
-        <v>1.064946978645972</v>
+        <v>1.082219091353511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063848918973741</v>
+        <v>1.056362251086269</v>
       </c>
       <c r="J5">
-        <v>1.066730645056515</v>
+        <v>1.076864653123126</v>
       </c>
       <c r="K5">
-        <v>1.067861700028431</v>
+        <v>1.074576523221719</v>
       </c>
       <c r="L5">
-        <v>1.065240311821549</v>
+        <v>1.078554232655951</v>
       </c>
       <c r="M5">
-        <v>1.074113448948281</v>
+        <v>1.08454218259889</v>
       </c>
       <c r="N5">
-        <v>1.06824552492821</v>
+        <v>1.078393924448663</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049214708859508</v>
+        <v>1.072656196090709</v>
       </c>
       <c r="D6">
-        <v>1.058856633871978</v>
+        <v>1.072278870103283</v>
       </c>
       <c r="E6">
-        <v>1.056252868533567</v>
+        <v>1.076276779612365</v>
       </c>
       <c r="F6">
-        <v>1.065198139787862</v>
+        <v>1.082273860104313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063959053821982</v>
+        <v>1.056382334356131</v>
       </c>
       <c r="J6">
-        <v>1.066943773206882</v>
+        <v>1.076910248764649</v>
       </c>
       <c r="K6">
-        <v>1.068049994862892</v>
+        <v>1.074616192037837</v>
       </c>
       <c r="L6">
-        <v>1.065472817111513</v>
+        <v>1.078604987434702</v>
       </c>
       <c r="M6">
-        <v>1.074327407849305</v>
+        <v>1.084588531404168</v>
       </c>
       <c r="N6">
-        <v>1.068458955744997</v>
+        <v>1.078439584841227</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047208626323034</v>
+        <v>1.07223398945404</v>
       </c>
       <c r="D7">
-        <v>1.057299244548655</v>
+        <v>1.071947656887836</v>
       </c>
       <c r="E7">
-        <v>1.054386303153341</v>
+        <v>1.075869430679441</v>
       </c>
       <c r="F7">
-        <v>1.063464083293836</v>
+        <v>1.081897233828193</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063197616341061</v>
+        <v>1.056244111160711</v>
       </c>
       <c r="J7">
-        <v>1.065471568479626</v>
+        <v>1.076596632718515</v>
       </c>
       <c r="K7">
-        <v>1.066749226813001</v>
+        <v>1.074343322790469</v>
       </c>
       <c r="L7">
-        <v>1.063867025686734</v>
+        <v>1.078255918963194</v>
       </c>
       <c r="M7">
-        <v>1.072849686008837</v>
+        <v>1.084269755080717</v>
       </c>
       <c r="N7">
-        <v>1.066984660318164</v>
+        <v>1.078125523424335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.038599921895821</v>
+        <v>1.070467971710471</v>
       </c>
       <c r="D8">
-        <v>1.05062138459973</v>
+        <v>1.070561985652565</v>
       </c>
       <c r="E8">
-        <v>1.046386474865557</v>
+        <v>1.074166170235179</v>
       </c>
       <c r="F8">
-        <v>1.056033967652227</v>
+        <v>1.080322332116599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059908551310629</v>
+        <v>1.055663192123225</v>
       </c>
       <c r="J8">
-        <v>1.059144744461875</v>
+        <v>1.075283463663085</v>
       </c>
       <c r="K8">
-        <v>1.061156685805505</v>
+        <v>1.073200293177694</v>
       </c>
       <c r="L8">
-        <v>1.056972737794389</v>
+        <v>1.076795130579119</v>
       </c>
       <c r="M8">
-        <v>1.066504872494826</v>
+        <v>1.082935482484382</v>
       </c>
       <c r="N8">
-        <v>1.060648851484612</v>
+        <v>1.076810489518223</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022491902291903</v>
+        <v>1.067351007323821</v>
       </c>
       <c r="D9">
-        <v>1.038152904922871</v>
+        <v>1.06811538015372</v>
       </c>
       <c r="E9">
-        <v>1.03146092505334</v>
+        <v>1.071162305990664</v>
       </c>
       <c r="F9">
-        <v>1.042180564364792</v>
+        <v>1.077544475917912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053674673525747</v>
+        <v>1.054627510123995</v>
       </c>
       <c r="J9">
-        <v>1.047274670531254</v>
+        <v>1.072960627857934</v>
       </c>
       <c r="K9">
-        <v>1.050655885459307</v>
+        <v>1.071176633580329</v>
       </c>
       <c r="L9">
-        <v>1.044063389889397</v>
+        <v>1.074214290650522</v>
       </c>
       <c r="M9">
-        <v>1.054624450379594</v>
+        <v>1.080577231103883</v>
       </c>
       <c r="N9">
-        <v>1.048761920687492</v>
+        <v>1.074484355019796</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.011020329866263</v>
+        <v>1.065269417948613</v>
       </c>
       <c r="D10">
-        <v>1.02929772849924</v>
+        <v>1.066480889875352</v>
       </c>
       <c r="E10">
-        <v>1.020865005402227</v>
+        <v>1.069157850084183</v>
       </c>
       <c r="F10">
-        <v>1.032354466324495</v>
+        <v>1.075690609083973</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049184644412109</v>
+        <v>1.053928888044947</v>
       </c>
       <c r="J10">
-        <v>1.038803431265761</v>
+        <v>1.071405944976645</v>
       </c>
       <c r="K10">
-        <v>1.043157412486295</v>
+        <v>1.069821005649345</v>
       </c>
       <c r="L10">
-        <v>1.034867484913794</v>
+        <v>1.072489017482178</v>
       </c>
       <c r="M10">
-        <v>1.046163130946514</v>
+        <v>1.079000144260134</v>
       </c>
       <c r="N10">
-        <v>1.040278651290578</v>
+        <v>1.072927464310492</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005853103440269</v>
+        <v>1.064367155587211</v>
       </c>
       <c r="D11">
-        <v>1.02531640521865</v>
+        <v>1.065772294106724</v>
       </c>
       <c r="E11">
-        <v>1.016101220673878</v>
+        <v>1.068289408025262</v>
       </c>
       <c r="F11">
-        <v>1.027939455007701</v>
+        <v>1.074887361954635</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047151087242289</v>
+        <v>1.053624421532582</v>
       </c>
       <c r="J11">
-        <v>1.034984397507314</v>
+        <v>1.070731259664942</v>
       </c>
       <c r="K11">
-        <v>1.039776178566799</v>
+        <v>1.069232425793059</v>
       </c>
       <c r="L11">
-        <v>1.030725748066689</v>
+        <v>1.071740796812601</v>
       </c>
       <c r="M11">
-        <v>1.042353031935038</v>
+        <v>1.078316047286397</v>
       </c>
       <c r="N11">
-        <v>1.036454194066144</v>
+        <v>1.072251820868259</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.003901206256954</v>
+        <v>1.064031872134478</v>
       </c>
       <c r="D12">
-        <v>1.023813734943518</v>
+        <v>1.065508959407988</v>
       </c>
       <c r="E12">
-        <v>1.014303175604623</v>
+        <v>1.067966751006077</v>
       </c>
       <c r="F12">
-        <v>1.026273510224808</v>
+        <v>1.074588920236856</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046381340243956</v>
+        <v>1.053511033227765</v>
       </c>
       <c r="J12">
-        <v>1.033541372825754</v>
+        <v>1.070480423215025</v>
       </c>
       <c r="K12">
-        <v>1.038498493375843</v>
+        <v>1.069013560273871</v>
       </c>
       <c r="L12">
-        <v>1.029161385555937</v>
+        <v>1.071462695589558</v>
       </c>
       <c r="M12">
-        <v>1.04091408742023</v>
+        <v>1.078061758692025</v>
       </c>
       <c r="N12">
-        <v>1.035009120124019</v>
+        <v>1.072000628201811</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004321411734699</v>
+        <v>1.064103798122589</v>
       </c>
       <c r="D13">
-        <v>1.024137171328761</v>
+        <v>1.065565451554626</v>
       </c>
       <c r="E13">
-        <v>1.014690192389062</v>
+        <v>1.068035965669019</v>
       </c>
       <c r="F13">
-        <v>1.026632071622049</v>
+        <v>1.074652940669774</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046547121664519</v>
+        <v>1.053535368819867</v>
       </c>
       <c r="J13">
-        <v>1.033852044545446</v>
+        <v>1.070534238868898</v>
       </c>
       <c r="K13">
-        <v>1.038773572105036</v>
+        <v>1.069060518609998</v>
       </c>
       <c r="L13">
-        <v>1.029498153515908</v>
+        <v>1.071522357392383</v>
       </c>
       <c r="M13">
-        <v>1.041223848346822</v>
+        <v>1.0781163128575</v>
       </c>
       <c r="N13">
-        <v>1.035320233033187</v>
+        <v>1.072054520280085</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005692438774909</v>
+        <v>1.064339443897927</v>
       </c>
       <c r="D14">
-        <v>1.025192690931392</v>
+        <v>1.065750529460883</v>
       </c>
       <c r="E14">
-        <v>1.015953189787901</v>
+        <v>1.06826273872923</v>
       </c>
       <c r="F14">
-        <v>1.027802290109957</v>
+        <v>1.074862694319431</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047087759324326</v>
+        <v>1.053615054865406</v>
       </c>
       <c r="J14">
-        <v>1.034865626780175</v>
+        <v>1.070710530121954</v>
       </c>
       <c r="K14">
-        <v>1.039671017923234</v>
+        <v>1.069214339228364</v>
       </c>
       <c r="L14">
-        <v>1.03059697834882</v>
+        <v>1.071717812545956</v>
       </c>
       <c r="M14">
-        <v>1.04223458254027</v>
+        <v>1.078295031493602</v>
       </c>
       <c r="N14">
-        <v>1.036335254670949</v>
+        <v>1.072231061886941</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006532779261786</v>
+        <v>1.064484613940852</v>
       </c>
       <c r="D15">
-        <v>1.025839818207551</v>
+        <v>1.065864544664692</v>
       </c>
       <c r="E15">
-        <v>1.016727510300063</v>
+        <v>1.068402450513531</v>
       </c>
       <c r="F15">
-        <v>1.028519791806709</v>
+        <v>1.074991919771097</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047418925946451</v>
+        <v>1.053664112811216</v>
       </c>
       <c r="J15">
-        <v>1.035486829436817</v>
+        <v>1.07081911863171</v>
       </c>
       <c r="K15">
-        <v>1.040221032984306</v>
+        <v>1.069309081202625</v>
       </c>
       <c r="L15">
-        <v>1.031270502605463</v>
+        <v>1.071838215123395</v>
       </c>
       <c r="M15">
-        <v>1.042854133390392</v>
+        <v>1.078405121402149</v>
       </c>
       <c r="N15">
-        <v>1.036957339506616</v>
+        <v>1.072339804604837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.011358840173858</v>
+        <v>1.065329278332285</v>
       </c>
       <c r="D16">
-        <v>1.029558714276233</v>
+        <v>1.066527898874815</v>
       </c>
       <c r="E16">
-        <v>1.021177280897921</v>
+        <v>1.069215474865451</v>
       </c>
       <c r="F16">
-        <v>1.032643939207135</v>
+        <v>1.075743906915449</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049317642067573</v>
+        <v>1.053949053080842</v>
       </c>
       <c r="J16">
-        <v>1.039053559656934</v>
+        <v>1.071450689787741</v>
       </c>
       <c r="K16">
-        <v>1.043378853972359</v>
+        <v>1.06986003414613</v>
       </c>
       <c r="L16">
-        <v>1.035138831235648</v>
+        <v>1.07253864955286</v>
       </c>
       <c r="M16">
-        <v>1.046412769418745</v>
+        <v>1.079045519814054</v>
       </c>
       <c r="N16">
-        <v>1.040529134892755</v>
+        <v>1.072972272664351</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.014330874321987</v>
+        <v>1.065858864213842</v>
       </c>
       <c r="D17">
-        <v>1.031850954203954</v>
+        <v>1.066943773666677</v>
       </c>
       <c r="E17">
-        <v>1.023920010881</v>
+        <v>1.06972532707626</v>
       </c>
       <c r="F17">
-        <v>1.035186701735437</v>
+        <v>1.076215469593593</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050484083684165</v>
+        <v>1.054127263072889</v>
       </c>
       <c r="J17">
-        <v>1.041249263206164</v>
+        <v>1.071846454459444</v>
       </c>
       <c r="K17">
-        <v>1.045322653934831</v>
+        <v>1.070205206331106</v>
       </c>
       <c r="L17">
-        <v>1.037521243310229</v>
+        <v>1.072977698875197</v>
       </c>
       <c r="M17">
-        <v>1.048604680646144</v>
+        <v>1.079446899273365</v>
       </c>
       <c r="N17">
-        <v>1.042727956592876</v>
+        <v>1.073368599367283</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.016045302529821</v>
+        <v>1.06616767421408</v>
       </c>
       <c r="D18">
-        <v>1.033173925828427</v>
+        <v>1.067186264513125</v>
       </c>
       <c r="E18">
-        <v>1.02550300666065</v>
+        <v>1.070022667325604</v>
       </c>
       <c r="F18">
-        <v>1.036654532176704</v>
+        <v>1.076490475086611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051155899721038</v>
+        <v>1.054231021086718</v>
       </c>
       <c r="J18">
-        <v>1.04251554805335</v>
+        <v>1.072077153048735</v>
       </c>
       <c r="K18">
-        <v>1.04644359114885</v>
+        <v>1.07040638678099</v>
       </c>
       <c r="L18">
-        <v>1.038895581239002</v>
+        <v>1.073233676657563</v>
       </c>
       <c r="M18">
-        <v>1.049869196352932</v>
+        <v>1.079680900777013</v>
       </c>
       <c r="N18">
-        <v>1.04399603970979</v>
+        <v>1.073599625575032</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.016626708983837</v>
+        <v>1.066272955578422</v>
       </c>
       <c r="D19">
-        <v>1.033622691370922</v>
+        <v>1.067268933822648</v>
       </c>
       <c r="E19">
-        <v>1.026039981130586</v>
+        <v>1.070124044657186</v>
       </c>
       <c r="F19">
-        <v>1.037152481386995</v>
+        <v>1.076584236633163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051383549239191</v>
+        <v>1.054266367903452</v>
       </c>
       <c r="J19">
-        <v>1.042944921777639</v>
+        <v>1.072155790938877</v>
       </c>
       <c r="K19">
-        <v>1.046823667122157</v>
+        <v>1.070474958307426</v>
       </c>
       <c r="L19">
-        <v>1.039361657723401</v>
+        <v>1.073320939532642</v>
       </c>
       <c r="M19">
-        <v>1.050298040142877</v>
+        <v>1.079760669599872</v>
       </c>
       <c r="N19">
-        <v>1.044426023194018</v>
+        <v>1.073678375139999</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.014013997024172</v>
+        <v>1.065802053848959</v>
       </c>
       <c r="D20">
-        <v>1.031606484170309</v>
+        <v>1.066899162728811</v>
       </c>
       <c r="E20">
-        <v>1.023627493729969</v>
+        <v>1.069670629745586</v>
       </c>
       <c r="F20">
-        <v>1.034915485329801</v>
+        <v>1.07616488047822</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050359826542515</v>
+        <v>1.054108162374382</v>
       </c>
       <c r="J20">
-        <v>1.041015190064776</v>
+        <v>1.071804007601075</v>
       </c>
       <c r="K20">
-        <v>1.045115442304281</v>
+        <v>1.070168188432279</v>
       </c>
       <c r="L20">
-        <v>1.037267227023763</v>
+        <v>1.072930604676611</v>
       </c>
       <c r="M20">
-        <v>1.048370968140006</v>
+        <v>1.079403847113105</v>
       </c>
       <c r="N20">
-        <v>1.042493551040779</v>
+        <v>1.073326092229506</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005289625919759</v>
+        <v>1.064270056077253</v>
       </c>
       <c r="D21">
-        <v>1.024882539531529</v>
+        <v>1.065696032260996</v>
       </c>
       <c r="E21">
-        <v>1.015582075647278</v>
+        <v>1.068195961926875</v>
       </c>
       <c r="F21">
-        <v>1.027458424647099</v>
+        <v>1.07480092933142</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046928960662241</v>
+        <v>1.053591597492193</v>
       </c>
       <c r="J21">
-        <v>1.034567842811657</v>
+        <v>1.07065862307041</v>
       </c>
       <c r="K21">
-        <v>1.039407356143913</v>
+        <v>1.069169049558463</v>
       </c>
       <c r="L21">
-        <v>1.030274134311945</v>
+        <v>1.071660260838023</v>
       </c>
       <c r="M21">
-        <v>1.041937615670042</v>
+        <v>1.078242408427796</v>
       </c>
       <c r="N21">
-        <v>1.03603704781504</v>
+        <v>1.07217908112143</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9996144273183006</v>
+        <v>1.063305998328398</v>
       </c>
       <c r="D22">
-        <v>1.020516046888186</v>
+        <v>1.064938818875674</v>
       </c>
       <c r="E22">
-        <v>1.010357086520918</v>
+        <v>1.067268320874315</v>
       </c>
       <c r="F22">
-        <v>1.022618250378138</v>
+        <v>1.073942894804303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044688002244404</v>
+        <v>1.053265099929133</v>
       </c>
       <c r="J22">
-        <v>1.030371552755257</v>
+        <v>1.069937151914384</v>
       </c>
       <c r="K22">
-        <v>1.035691746188302</v>
+        <v>1.06853945698131</v>
       </c>
       <c r="L22">
-        <v>1.025726122304838</v>
+        <v>1.070860509263005</v>
       </c>
       <c r="M22">
-        <v>1.037754568426585</v>
+        <v>1.077511096745557</v>
       </c>
       <c r="N22">
-        <v>1.031834798545438</v>
+        <v>1.071456585393609</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002641869412382</v>
+        <v>1.063817143842568</v>
       </c>
       <c r="D23">
-        <v>1.022844607155522</v>
+        <v>1.065340304783743</v>
       </c>
       <c r="E23">
-        <v>1.013143525045766</v>
+        <v>1.067760125761708</v>
       </c>
       <c r="F23">
-        <v>1.025199194946914</v>
+        <v>1.074397800245769</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045884276236598</v>
+        <v>1.053438345358792</v>
       </c>
       <c r="J23">
-        <v>1.032610252271934</v>
+        <v>1.070319743889594</v>
       </c>
       <c r="K23">
-        <v>1.037674039398791</v>
+        <v>1.068873349012165</v>
       </c>
       <c r="L23">
-        <v>1.028152138429046</v>
+        <v>1.071284572100446</v>
       </c>
       <c r="M23">
-        <v>1.039985802622039</v>
+        <v>1.077898881258733</v>
       </c>
       <c r="N23">
-        <v>1.034076677272211</v>
+        <v>1.071839720693308</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.014157239101349</v>
+        <v>1.065827724280653</v>
       </c>
       <c r="D24">
-        <v>1.031716992954533</v>
+        <v>1.066919320744315</v>
       </c>
       <c r="E24">
-        <v>1.023759721371734</v>
+        <v>1.069695345262818</v>
       </c>
       <c r="F24">
-        <v>1.035038083548968</v>
+        <v>1.076187739673312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050415999345214</v>
+        <v>1.054116793741346</v>
       </c>
       <c r="J24">
-        <v>1.041121002108105</v>
+        <v>1.07182318795484</v>
       </c>
       <c r="K24">
-        <v>1.045209111910718</v>
+        <v>1.070184915698898</v>
       </c>
       <c r="L24">
-        <v>1.037382053135556</v>
+        <v>1.072951884864532</v>
       </c>
       <c r="M24">
-        <v>1.048476615864077</v>
+        <v>1.079423300890558</v>
       </c>
       <c r="N24">
-        <v>1.042599513349346</v>
+        <v>1.073345299821574</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.026777300737343</v>
+        <v>1.068157436449925</v>
       </c>
       <c r="D25">
-        <v>1.041466338008041</v>
+        <v>1.068748478670831</v>
       </c>
       <c r="E25">
-        <v>1.035426326736101</v>
+        <v>1.071939193673523</v>
       </c>
       <c r="F25">
-        <v>1.045859818090699</v>
+        <v>1.078262952342972</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055342038356464</v>
+        <v>1.054896692410985</v>
       </c>
       <c r="J25">
-        <v>1.050435925803191</v>
+        <v>1.073562204078385</v>
       </c>
       <c r="K25">
-        <v>1.053453323784938</v>
+        <v>1.07170093744879</v>
       </c>
       <c r="L25">
-        <v>1.047498504963403</v>
+        <v>1.074882317216495</v>
       </c>
       <c r="M25">
-        <v>1.057785614950323</v>
+        <v>1.081187751582958</v>
       </c>
       <c r="N25">
-        <v>1.051927665304516</v>
+        <v>1.075086785547483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.070012994947984</v>
+        <v>1.036323420370155</v>
       </c>
       <c r="D2">
-        <v>1.070204931461848</v>
+        <v>1.048857036884389</v>
       </c>
       <c r="E2">
-        <v>1.07372751879298</v>
+        <v>1.044273704355616</v>
       </c>
       <c r="F2">
-        <v>1.079916712169917</v>
+        <v>1.054072190370663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055512826316385</v>
+        <v>1.059033403744002</v>
       </c>
       <c r="J2">
-        <v>1.074944804679304</v>
+        <v>1.057469444745059</v>
       </c>
       <c r="K2">
-        <v>1.072905391148903</v>
+        <v>1.05967522682099</v>
       </c>
       <c r="L2">
-        <v>1.076418612711777</v>
+        <v>1.055148861020454</v>
       </c>
       <c r="M2">
-        <v>1.082591510264475</v>
+        <v>1.064826309796904</v>
       </c>
       <c r="N2">
-        <v>1.076471349599841</v>
+        <v>1.058971172650038</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071358866210923</v>
+        <v>1.042987255507145</v>
       </c>
       <c r="D3">
-        <v>1.071261060445785</v>
+        <v>1.054023558688988</v>
       </c>
       <c r="E3">
-        <v>1.075025283657365</v>
+        <v>1.050461455560875</v>
       </c>
       <c r="F3">
-        <v>1.081116722468656</v>
+        <v>1.059818365401951</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055956795270299</v>
+        <v>1.061588978694267</v>
       </c>
       <c r="J3">
-        <v>1.075946184319272</v>
+        <v>1.062370900540621</v>
       </c>
       <c r="K3">
-        <v>1.073777243667104</v>
+        <v>1.064008889692159</v>
       </c>
       <c r="L3">
-        <v>1.077532185862855</v>
+        <v>1.060486953702432</v>
       </c>
       <c r="M3">
-        <v>1.083608752920098</v>
+        <v>1.069739062277666</v>
       </c>
       <c r="N3">
-        <v>1.077474151313758</v>
+        <v>1.063879589075033</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072229102381869</v>
+        <v>1.047185290520378</v>
       </c>
       <c r="D4">
-        <v>1.071943822924284</v>
+        <v>1.057281130827254</v>
       </c>
       <c r="E4">
-        <v>1.075864715919043</v>
+        <v>1.054364595609811</v>
       </c>
       <c r="F4">
-        <v>1.08189287460222</v>
+        <v>1.063443917661463</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056242509706581</v>
+        <v>1.063188747149006</v>
       </c>
       <c r="J4">
-        <v>1.076593001839951</v>
+        <v>1.06545443793496</v>
       </c>
       <c r="K4">
-        <v>1.074340163395683</v>
+        <v>1.066734089720361</v>
       </c>
       <c r="L4">
-        <v>1.078251878088413</v>
+        <v>1.063848344314486</v>
       </c>
       <c r="M4">
-        <v>1.084266064734413</v>
+        <v>1.072832494298292</v>
       </c>
       <c r="N4">
-        <v>1.078121887389507</v>
+        <v>1.06696750544616</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072594802052421</v>
+        <v>1.048924218260657</v>
       </c>
       <c r="D5">
-        <v>1.072230709196117</v>
+        <v>1.058631088695718</v>
       </c>
       <c r="E5">
-        <v>1.076217542528426</v>
+        <v>1.055982524566978</v>
       </c>
       <c r="F5">
-        <v>1.082219091353511</v>
+        <v>1.064946978645972</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056362251086269</v>
+        <v>1.063848918973742</v>
       </c>
       <c r="J5">
-        <v>1.076864653123126</v>
+        <v>1.066730645056516</v>
       </c>
       <c r="K5">
-        <v>1.074576523221719</v>
+        <v>1.067861700028431</v>
       </c>
       <c r="L5">
-        <v>1.078554232655951</v>
+        <v>1.06524031182155</v>
       </c>
       <c r="M5">
-        <v>1.08454218259889</v>
+        <v>1.074113448948281</v>
       </c>
       <c r="N5">
-        <v>1.078393924448663</v>
+        <v>1.068245524928211</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.072656196090709</v>
+        <v>1.049214708859505</v>
       </c>
       <c r="D6">
-        <v>1.072278870103283</v>
+        <v>1.058856633871976</v>
       </c>
       <c r="E6">
-        <v>1.076276779612365</v>
+        <v>1.056252868533564</v>
       </c>
       <c r="F6">
-        <v>1.082273860104313</v>
+        <v>1.06519813978786</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056382334356131</v>
+        <v>1.06395905382198</v>
       </c>
       <c r="J6">
-        <v>1.076910248764649</v>
+        <v>1.06694377320688</v>
       </c>
       <c r="K6">
-        <v>1.074616192037837</v>
+        <v>1.06804999486289</v>
       </c>
       <c r="L6">
-        <v>1.078604987434702</v>
+        <v>1.065472817111511</v>
       </c>
       <c r="M6">
-        <v>1.084588531404168</v>
+        <v>1.074327407849303</v>
       </c>
       <c r="N6">
-        <v>1.078439584841227</v>
+        <v>1.068458955744995</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07223398945404</v>
+        <v>1.047208626323035</v>
       </c>
       <c r="D7">
-        <v>1.071947656887836</v>
+        <v>1.057299244548656</v>
       </c>
       <c r="E7">
-        <v>1.075869430679441</v>
+        <v>1.054386303153342</v>
       </c>
       <c r="F7">
-        <v>1.081897233828193</v>
+        <v>1.063464083293836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056244111160711</v>
+        <v>1.063197616341061</v>
       </c>
       <c r="J7">
-        <v>1.076596632718515</v>
+        <v>1.065471568479627</v>
       </c>
       <c r="K7">
-        <v>1.074343322790469</v>
+        <v>1.066749226813001</v>
       </c>
       <c r="L7">
-        <v>1.078255918963194</v>
+        <v>1.063867025686735</v>
       </c>
       <c r="M7">
-        <v>1.084269755080717</v>
+        <v>1.072849686008837</v>
       </c>
       <c r="N7">
-        <v>1.078125523424335</v>
+        <v>1.066984660318165</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070467971710471</v>
+        <v>1.038599921895821</v>
       </c>
       <c r="D8">
-        <v>1.070561985652565</v>
+        <v>1.050621384599729</v>
       </c>
       <c r="E8">
-        <v>1.074166170235179</v>
+        <v>1.046386474865557</v>
       </c>
       <c r="F8">
-        <v>1.080322332116599</v>
+        <v>1.056033967652226</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055663192123225</v>
+        <v>1.059908551310629</v>
       </c>
       <c r="J8">
-        <v>1.075283463663085</v>
+        <v>1.059144744461875</v>
       </c>
       <c r="K8">
-        <v>1.073200293177694</v>
+        <v>1.061156685805505</v>
       </c>
       <c r="L8">
-        <v>1.076795130579119</v>
+        <v>1.056972737794389</v>
       </c>
       <c r="M8">
-        <v>1.082935482484382</v>
+        <v>1.066504872494825</v>
       </c>
       <c r="N8">
-        <v>1.076810489518223</v>
+        <v>1.060648851484611</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.067351007323821</v>
+        <v>1.022491902291904</v>
       </c>
       <c r="D9">
-        <v>1.06811538015372</v>
+        <v>1.038152904922872</v>
       </c>
       <c r="E9">
-        <v>1.071162305990664</v>
+        <v>1.031460925053341</v>
       </c>
       <c r="F9">
-        <v>1.077544475917912</v>
+        <v>1.042180564364793</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054627510123995</v>
+        <v>1.053674673525747</v>
       </c>
       <c r="J9">
-        <v>1.072960627857934</v>
+        <v>1.047274670531255</v>
       </c>
       <c r="K9">
-        <v>1.071176633580329</v>
+        <v>1.050655885459307</v>
       </c>
       <c r="L9">
-        <v>1.074214290650522</v>
+        <v>1.044063389889397</v>
       </c>
       <c r="M9">
-        <v>1.080577231103883</v>
+        <v>1.054624450379595</v>
       </c>
       <c r="N9">
-        <v>1.074484355019796</v>
+        <v>1.048761920687493</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.065269417948613</v>
+        <v>1.011020329866262</v>
       </c>
       <c r="D10">
-        <v>1.066480889875352</v>
+        <v>1.02929772849924</v>
       </c>
       <c r="E10">
-        <v>1.069157850084183</v>
+        <v>1.020865005402227</v>
       </c>
       <c r="F10">
-        <v>1.075690609083973</v>
+        <v>1.032354466324496</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053928888044947</v>
+        <v>1.049184644412109</v>
       </c>
       <c r="J10">
-        <v>1.071405944976645</v>
+        <v>1.038803431265761</v>
       </c>
       <c r="K10">
-        <v>1.069821005649345</v>
+        <v>1.043157412486295</v>
       </c>
       <c r="L10">
-        <v>1.072489017482178</v>
+        <v>1.034867484913794</v>
       </c>
       <c r="M10">
-        <v>1.079000144260134</v>
+        <v>1.046163130946514</v>
       </c>
       <c r="N10">
-        <v>1.072927464310492</v>
+        <v>1.040278651290578</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.064367155587211</v>
+        <v>1.00585310344027</v>
       </c>
       <c r="D11">
-        <v>1.065772294106724</v>
+        <v>1.025316405218651</v>
       </c>
       <c r="E11">
-        <v>1.068289408025262</v>
+        <v>1.01610122067388</v>
       </c>
       <c r="F11">
-        <v>1.074887361954635</v>
+        <v>1.027939455007702</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053624421532582</v>
+        <v>1.04715108724229</v>
       </c>
       <c r="J11">
-        <v>1.070731259664942</v>
+        <v>1.034984397507315</v>
       </c>
       <c r="K11">
-        <v>1.069232425793059</v>
+        <v>1.0397761785668</v>
       </c>
       <c r="L11">
-        <v>1.071740796812601</v>
+        <v>1.03072574806669</v>
       </c>
       <c r="M11">
-        <v>1.078316047286397</v>
+        <v>1.04235303193504</v>
       </c>
       <c r="N11">
-        <v>1.072251820868259</v>
+        <v>1.036454194066145</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.064031872134478</v>
+        <v>1.003901206256952</v>
       </c>
       <c r="D12">
-        <v>1.065508959407988</v>
+        <v>1.023813734943516</v>
       </c>
       <c r="E12">
-        <v>1.067966751006077</v>
+        <v>1.014303175604622</v>
       </c>
       <c r="F12">
-        <v>1.074588920236856</v>
+        <v>1.026273510224806</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053511033227765</v>
+        <v>1.046381340243955</v>
       </c>
       <c r="J12">
-        <v>1.070480423215025</v>
+        <v>1.033541372825753</v>
       </c>
       <c r="K12">
-        <v>1.069013560273871</v>
+        <v>1.038498493375841</v>
       </c>
       <c r="L12">
-        <v>1.071462695589558</v>
+        <v>1.029161385555936</v>
       </c>
       <c r="M12">
-        <v>1.078061758692025</v>
+        <v>1.040914087420229</v>
       </c>
       <c r="N12">
-        <v>1.072000628201811</v>
+        <v>1.035009120124018</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.064103798122589</v>
+        <v>1.004321411734699</v>
       </c>
       <c r="D13">
-        <v>1.065565451554626</v>
+        <v>1.024137171328761</v>
       </c>
       <c r="E13">
-        <v>1.068035965669019</v>
+        <v>1.014690192389062</v>
       </c>
       <c r="F13">
-        <v>1.074652940669774</v>
+        <v>1.02663207162205</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053535368819867</v>
+        <v>1.04654712166452</v>
       </c>
       <c r="J13">
-        <v>1.070534238868898</v>
+        <v>1.033852044545446</v>
       </c>
       <c r="K13">
-        <v>1.069060518609998</v>
+        <v>1.038773572105036</v>
       </c>
       <c r="L13">
-        <v>1.071522357392383</v>
+        <v>1.029498153515908</v>
       </c>
       <c r="M13">
-        <v>1.0781163128575</v>
+        <v>1.041223848346823</v>
       </c>
       <c r="N13">
-        <v>1.072054520280085</v>
+        <v>1.035320233033187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.064339443897927</v>
+        <v>1.00569243877491</v>
       </c>
       <c r="D14">
-        <v>1.065750529460883</v>
+        <v>1.025192690931393</v>
       </c>
       <c r="E14">
-        <v>1.06826273872923</v>
+        <v>1.015953189787902</v>
       </c>
       <c r="F14">
-        <v>1.074862694319431</v>
+        <v>1.027802290109957</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053615054865406</v>
+        <v>1.047087759324326</v>
       </c>
       <c r="J14">
-        <v>1.070710530121954</v>
+        <v>1.034865626780176</v>
       </c>
       <c r="K14">
-        <v>1.069214339228364</v>
+        <v>1.039671017923234</v>
       </c>
       <c r="L14">
-        <v>1.071717812545956</v>
+        <v>1.030596978348821</v>
       </c>
       <c r="M14">
-        <v>1.078295031493602</v>
+        <v>1.04223458254027</v>
       </c>
       <c r="N14">
-        <v>1.072231061886941</v>
+        <v>1.036335254670951</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.064484613940852</v>
+        <v>1.006532779261788</v>
       </c>
       <c r="D15">
-        <v>1.065864544664692</v>
+        <v>1.025839818207553</v>
       </c>
       <c r="E15">
-        <v>1.068402450513531</v>
+        <v>1.016727510300065</v>
       </c>
       <c r="F15">
-        <v>1.074991919771097</v>
+        <v>1.028519791806711</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053664112811216</v>
+        <v>1.047418925946452</v>
       </c>
       <c r="J15">
-        <v>1.07081911863171</v>
+        <v>1.035486829436818</v>
       </c>
       <c r="K15">
-        <v>1.069309081202625</v>
+        <v>1.040221032984307</v>
       </c>
       <c r="L15">
-        <v>1.071838215123395</v>
+        <v>1.031270502605465</v>
       </c>
       <c r="M15">
-        <v>1.078405121402149</v>
+        <v>1.042854133390394</v>
       </c>
       <c r="N15">
-        <v>1.072339804604837</v>
+        <v>1.036957339506618</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.065329278332285</v>
+        <v>1.011358840173859</v>
       </c>
       <c r="D16">
-        <v>1.066527898874815</v>
+        <v>1.029558714276233</v>
       </c>
       <c r="E16">
-        <v>1.069215474865451</v>
+        <v>1.021177280897922</v>
       </c>
       <c r="F16">
-        <v>1.075743906915449</v>
+        <v>1.032643939207136</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053949053080842</v>
+        <v>1.049317642067574</v>
       </c>
       <c r="J16">
-        <v>1.071450689787741</v>
+        <v>1.039053559656934</v>
       </c>
       <c r="K16">
-        <v>1.06986003414613</v>
+        <v>1.04337885397236</v>
       </c>
       <c r="L16">
-        <v>1.07253864955286</v>
+        <v>1.035138831235648</v>
       </c>
       <c r="M16">
-        <v>1.079045519814054</v>
+        <v>1.046412769418745</v>
       </c>
       <c r="N16">
-        <v>1.072972272664351</v>
+        <v>1.040529134892756</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.065858864213842</v>
+        <v>1.014330874321987</v>
       </c>
       <c r="D17">
-        <v>1.066943773666677</v>
+        <v>1.031850954203954</v>
       </c>
       <c r="E17">
-        <v>1.06972532707626</v>
+        <v>1.023920010881</v>
       </c>
       <c r="F17">
-        <v>1.076215469593593</v>
+        <v>1.035186701735437</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054127263072889</v>
+        <v>1.050484083684165</v>
       </c>
       <c r="J17">
-        <v>1.071846454459444</v>
+        <v>1.041249263206164</v>
       </c>
       <c r="K17">
-        <v>1.070205206331106</v>
+        <v>1.045322653934832</v>
       </c>
       <c r="L17">
-        <v>1.072977698875197</v>
+        <v>1.03752124331023</v>
       </c>
       <c r="M17">
-        <v>1.079446899273365</v>
+        <v>1.048604680646144</v>
       </c>
       <c r="N17">
-        <v>1.073368599367283</v>
+        <v>1.042727956592876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.06616767421408</v>
+        <v>1.016045302529821</v>
       </c>
       <c r="D18">
-        <v>1.067186264513125</v>
+        <v>1.033173925828426</v>
       </c>
       <c r="E18">
-        <v>1.070022667325604</v>
+        <v>1.025503006660649</v>
       </c>
       <c r="F18">
-        <v>1.076490475086611</v>
+        <v>1.036654532176703</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054231021086718</v>
+        <v>1.051155899721038</v>
       </c>
       <c r="J18">
-        <v>1.072077153048735</v>
+        <v>1.042515548053349</v>
       </c>
       <c r="K18">
-        <v>1.07040638678099</v>
+        <v>1.046443591148849</v>
       </c>
       <c r="L18">
-        <v>1.073233676657563</v>
+        <v>1.038895581239001</v>
       </c>
       <c r="M18">
-        <v>1.079680900777013</v>
+        <v>1.049869196352931</v>
       </c>
       <c r="N18">
-        <v>1.073599625575032</v>
+        <v>1.04399603970979</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.066272955578422</v>
+        <v>1.016626708983835</v>
       </c>
       <c r="D19">
-        <v>1.067268933822648</v>
+        <v>1.03362269137092</v>
       </c>
       <c r="E19">
-        <v>1.070124044657186</v>
+        <v>1.026039981130584</v>
       </c>
       <c r="F19">
-        <v>1.076584236633163</v>
+        <v>1.037152481386993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054266367903452</v>
+        <v>1.05138354923919</v>
       </c>
       <c r="J19">
-        <v>1.072155790938877</v>
+        <v>1.042944921777637</v>
       </c>
       <c r="K19">
-        <v>1.070474958307426</v>
+        <v>1.046823667122155</v>
       </c>
       <c r="L19">
-        <v>1.073320939532642</v>
+        <v>1.039361657723399</v>
       </c>
       <c r="M19">
-        <v>1.079760669599872</v>
+        <v>1.050298040142875</v>
       </c>
       <c r="N19">
-        <v>1.073678375139999</v>
+        <v>1.044426023194015</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.065802053848959</v>
+        <v>1.014013997024174</v>
       </c>
       <c r="D20">
-        <v>1.066899162728811</v>
+        <v>1.031606484170311</v>
       </c>
       <c r="E20">
-        <v>1.069670629745586</v>
+        <v>1.023627493729972</v>
       </c>
       <c r="F20">
-        <v>1.07616488047822</v>
+        <v>1.034915485329803</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054108162374382</v>
+        <v>1.050359826542516</v>
       </c>
       <c r="J20">
-        <v>1.071804007601075</v>
+        <v>1.041015190064778</v>
       </c>
       <c r="K20">
-        <v>1.070168188432279</v>
+        <v>1.045115442304283</v>
       </c>
       <c r="L20">
-        <v>1.072930604676611</v>
+        <v>1.037267227023766</v>
       </c>
       <c r="M20">
-        <v>1.079403847113105</v>
+        <v>1.048370968140008</v>
       </c>
       <c r="N20">
-        <v>1.073326092229506</v>
+        <v>1.042493551040781</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.064270056077253</v>
+        <v>1.005289625919759</v>
       </c>
       <c r="D21">
-        <v>1.065696032260996</v>
+        <v>1.02488253953153</v>
       </c>
       <c r="E21">
-        <v>1.068195961926875</v>
+        <v>1.01558207564728</v>
       </c>
       <c r="F21">
-        <v>1.07480092933142</v>
+        <v>1.027458424647099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053591597492193</v>
+        <v>1.046928960662241</v>
       </c>
       <c r="J21">
-        <v>1.07065862307041</v>
+        <v>1.034567842811658</v>
       </c>
       <c r="K21">
-        <v>1.069169049558463</v>
+        <v>1.039407356143913</v>
       </c>
       <c r="L21">
-        <v>1.071660260838023</v>
+        <v>1.030274134311946</v>
       </c>
       <c r="M21">
-        <v>1.078242408427796</v>
+        <v>1.041937615670043</v>
       </c>
       <c r="N21">
-        <v>1.07217908112143</v>
+        <v>1.036037047815041</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.063305998328398</v>
+        <v>0.9996144273183023</v>
       </c>
       <c r="D22">
-        <v>1.064938818875674</v>
+        <v>1.020516046888188</v>
       </c>
       <c r="E22">
-        <v>1.067268320874315</v>
+        <v>1.010357086520919</v>
       </c>
       <c r="F22">
-        <v>1.073942894804303</v>
+        <v>1.022618250378139</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053265099929133</v>
+        <v>1.044688002244405</v>
       </c>
       <c r="J22">
-        <v>1.069937151914384</v>
+        <v>1.030371552755259</v>
       </c>
       <c r="K22">
-        <v>1.06853945698131</v>
+        <v>1.035691746188303</v>
       </c>
       <c r="L22">
-        <v>1.070860509263005</v>
+        <v>1.025726122304839</v>
       </c>
       <c r="M22">
-        <v>1.077511096745557</v>
+        <v>1.037754568426587</v>
       </c>
       <c r="N22">
-        <v>1.071456585393609</v>
+        <v>1.03183479854544</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063817143842568</v>
+        <v>1.002641869412382</v>
       </c>
       <c r="D23">
-        <v>1.065340304783743</v>
+        <v>1.022844607155522</v>
       </c>
       <c r="E23">
-        <v>1.067760125761708</v>
+        <v>1.013143525045766</v>
       </c>
       <c r="F23">
-        <v>1.074397800245769</v>
+        <v>1.025199194946913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053438345358792</v>
+        <v>1.045884276236598</v>
       </c>
       <c r="J23">
-        <v>1.070319743889594</v>
+        <v>1.032610252271934</v>
       </c>
       <c r="K23">
-        <v>1.068873349012165</v>
+        <v>1.037674039398791</v>
       </c>
       <c r="L23">
-        <v>1.071284572100446</v>
+        <v>1.028152138429046</v>
       </c>
       <c r="M23">
-        <v>1.077898881258733</v>
+        <v>1.039985802622038</v>
       </c>
       <c r="N23">
-        <v>1.071839720693308</v>
+        <v>1.034076677272212</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.065827724280653</v>
+        <v>1.014157239101349</v>
       </c>
       <c r="D24">
-        <v>1.066919320744315</v>
+        <v>1.031716992954532</v>
       </c>
       <c r="E24">
-        <v>1.069695345262818</v>
+        <v>1.023759721371733</v>
       </c>
       <c r="F24">
-        <v>1.076187739673312</v>
+        <v>1.035038083548968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054116793741346</v>
+        <v>1.050415999345213</v>
       </c>
       <c r="J24">
-        <v>1.07182318795484</v>
+        <v>1.041121002108104</v>
       </c>
       <c r="K24">
-        <v>1.070184915698898</v>
+        <v>1.045209111910717</v>
       </c>
       <c r="L24">
-        <v>1.072951884864532</v>
+        <v>1.037382053135555</v>
       </c>
       <c r="M24">
-        <v>1.079423300890558</v>
+        <v>1.048476615864076</v>
       </c>
       <c r="N24">
-        <v>1.073345299821574</v>
+        <v>1.042599513349345</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.068157436449925</v>
+        <v>1.02677730073734</v>
       </c>
       <c r="D25">
-        <v>1.068748478670831</v>
+        <v>1.041466338008039</v>
       </c>
       <c r="E25">
-        <v>1.071939193673523</v>
+        <v>1.035426326736099</v>
       </c>
       <c r="F25">
-        <v>1.078262952342972</v>
+        <v>1.045859818090696</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054896692410985</v>
+        <v>1.055342038356462</v>
       </c>
       <c r="J25">
-        <v>1.073562204078385</v>
+        <v>1.050435925803189</v>
       </c>
       <c r="K25">
-        <v>1.07170093744879</v>
+        <v>1.053453323784936</v>
       </c>
       <c r="L25">
-        <v>1.074882317216495</v>
+        <v>1.0474985049634</v>
       </c>
       <c r="M25">
-        <v>1.081187751582958</v>
+        <v>1.057785614950321</v>
       </c>
       <c r="N25">
-        <v>1.075086785547483</v>
+        <v>1.051927665304514</v>
       </c>
     </row>
   </sheetData>
